--- a/target/test-classes/Excel/TestData.xlsx
+++ b/target/test-classes/Excel/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lavanya Yelakala\eclipse-workspace\DSAlgo_TeamAchievers\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3662FD01-6F55-4694-BC02-834D58557BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D88B0D-223E-4F82-8049-428852F3AAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{26669724-F08E-441E-A6A1-80AC505F734B}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="login" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
     <sheet name="pythonCode1" sheetId="4" r:id="rId5"/>
-    <sheet name="InvalidCode" sheetId="7" r:id="rId6"/>
+    <sheet name="pythonCode" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -1460,7 +1460,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/target/test-classes/Excel/TestData.xlsx
+++ b/target/test-classes/Excel/TestData.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lavanya Yelakala\eclipse-workspace\DSAlgo_TeamAchievers\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E70E528-39AA-4FB4-AD1C-3A646E429F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D16A0C5-0006-4D51-A537-DD7F00EDBC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26669724-F08E-441E-A6A1-80AC505F734B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{26669724-F08E-441E-A6A1-80AC505F734B}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
     <sheet name="login1" sheetId="3" r:id="rId2"/>
     <sheet name="login" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
-    <sheet name="pythonCode" sheetId="4" r:id="rId5"/>
+    <sheet name="pythonCode1" sheetId="4" r:id="rId5"/>
+    <sheet name="tryEditorCode" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
   <si>
     <t>username</t>
   </si>
@@ -337,6 +338,15 @@
   </si>
   <si>
     <t>Psssuejjj</t>
+  </si>
+  <si>
+    <t>pCode</t>
+  </si>
+  <si>
+    <t>print("hello");</t>
+  </si>
+  <si>
+    <t>gdfgdgdfhdhd</t>
   </si>
 </sst>
 </file>
@@ -413,7 +423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -421,12 +431,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -451,7 +476,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,7 +820,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1076,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF4F130-7460-44A6-A612-2786A37CAEED}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1178,7 +1208,7 @@
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" t="s">
         <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1270,16 +1300,18 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="61.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -1348,6 +1380,39 @@
       </c>
       <c r="B9" s="10" t="s">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF521D5E-4550-427D-AF53-CC1823D613EE}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1">
+      <c r="A1" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" thickBot="1">
+      <c r="A3" s="14" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
